--- a/biology/Zoologie/Colpodaspididae/Colpodaspididae.xlsx
+++ b/biology/Zoologie/Colpodaspididae/Colpodaspididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colpodaspididae sont une famille de gastéropodes de l'ordre des Cephalaspidea (limaces de mer).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Colpodaspididae a été créée en 2015 par les malacologistes Trond Roger Oskars (d), Philippe Bouchet et Manuel António E. Malaquias (d) avec pour genre type Colpodaspis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Colpodaspididae a été créée en 2015 par les malacologistes Trond Roger Oskars (d), Philippe Bouchet et Manuel António E. Malaquias (d) avec pour genre type Colpodaspis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (13 juillet 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (13 juillet 2021) :
 genre Colobocephalus M. Sars, 1870 -- 1 espèce
 genre Colpodaspis M. Sars, 1870 -- 2 espèces - genre type</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Trond R. Oskars, Philippe Bouchet et Manuel António E. Malaquias, « A new phylogeny of the Cephalaspidea (Gastropoda: Heterobranchia) based on expanded taxon sampling and gene markers », Molecular Phylogenetics and Evolution, Academic Press et Elsevier, vol. 89,‎ 24 avril 2015, p. 130-150 (ISSN 1055-7903 et 1095-9513, PMID 25916189, DOI 10.1016/J.YMPEV.2015.04.011, lire en ligne)</t>
         </is>
